--- a/src/test/resources/xls/tests.xlsx
+++ b/src/test/resources/xls/tests.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="secondsheet" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t xml:space="preserve">Execute</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t xml:space="preserve">nmb008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
 </sst>
 </file>
@@ -83,6 +96,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,12 +126,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +193,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -202,11 +222,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -235,24 +255,24 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="4" t="n">
         <f aca="false">C2+D2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="4" t="n">
         <f aca="false">D2*C2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="4" t="n">
         <f aca="false">C2^2-D2^2</f>
         <v>-3</v>
       </c>
@@ -261,24 +281,24 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="4" t="n">
         <f aca="false">C3+D3</f>
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="4" t="n">
         <f aca="false">D3*C3</f>
         <v>12</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="4" t="n">
         <f aca="false">C3^2-D3^2</f>
         <v>-7</v>
       </c>
@@ -287,24 +307,24 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="4" t="n">
         <f aca="false">C4+D4</f>
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="n">
         <f aca="false">D4*C4</f>
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false">C4^2-D4^2</f>
         <v>-11</v>
       </c>
@@ -313,24 +333,24 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="4" t="n">
         <f aca="false">C5+D5</f>
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="4" t="n">
         <f aca="false">D5*C5</f>
         <v>56</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">C5^2-D5^2</f>
         <v>-15</v>
       </c>
@@ -339,24 +359,24 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="4" t="n">
         <f aca="false">C6+D6</f>
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="4" t="n">
         <f aca="false">D6*C6</f>
         <v>90</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="4" t="n">
         <f aca="false">C6^2-D6^2</f>
         <v>-19</v>
       </c>
@@ -365,24 +385,24 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">C7+D7</f>
         <v>23</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="4" t="n">
         <f aca="false">D7*C7</f>
         <v>132</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false">C7^2-D7^2</f>
         <v>-23</v>
       </c>
@@ -391,24 +411,24 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="4" t="n">
         <f aca="false">C8+D8</f>
         <v>27</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="4" t="n">
         <f aca="false">D8*C8</f>
         <v>182</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="4" t="n">
         <f aca="false">C8^2-D8^2</f>
         <v>-27</v>
       </c>
@@ -417,30 +437,30 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="4" t="n">
         <f aca="false">C9+D9</f>
         <v>31</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="4" t="n">
         <f aca="false">D9*C9</f>
         <v>240</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="4" t="n">
         <f aca="false">C9^2-D9^2</f>
         <v>-31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -451,4 +471,157 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>